--- a/BOXSCDATA_12_9.xlsx
+++ b/BOXSCDATA_12_9.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waelivie/Desktop/MBB_performance_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9673F0C-2A5C-594E-BE19-97133F8C44E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A65769-761D-0B42-B768-45BBF622AFF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{C313AF30-F389-F049-B631-8F429ACAEBC9}"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{C313AF30-F389-F049-B631-8F429ACAEBC9}"/>
   </bookViews>
   <sheets>
     <sheet name="BoxScoreData_Date_12_9" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BoxScoreData_Date_12_25" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>UC San Diego Tritons</t>
   </si>
@@ -141,15 +142,6 @@
     <t>FT%</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>Tkn</t>
-  </si>
-  <si>
-    <t>Com</t>
-  </si>
-  <si>
     <t>OREB</t>
   </si>
   <si>
@@ -199,13 +191,59 @@
   </si>
   <si>
     <t>TtlReb</t>
+  </si>
+  <si>
+    <t>#10 Connor Peterson</t>
+  </si>
+  <si>
+    <t>2FGA</t>
+  </si>
+  <si>
+    <t>2FGM</t>
+  </si>
+  <si>
+    <t>2FGm</t>
+  </si>
+  <si>
+    <t>2FG%</t>
+  </si>
+  <si>
+    <t>3FGA</t>
+  </si>
+  <si>
+    <t>3FGM</t>
+  </si>
+  <si>
+    <t>3FGm</t>
+  </si>
+  <si>
+    <t>3FG%</t>
+  </si>
+  <si>
+    <t>PFTkn</t>
+  </si>
+  <si>
+    <t>PFCom</t>
+  </si>
+  <si>
+    <t>SSTexPts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,17 +269,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F466497-F810-3C42-A6CB-3187A5C48D10}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -567,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -579,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -591,25 +632,25 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P1" t="s">
         <v>1</v>
@@ -630,28 +671,28 @@
         <v>30</v>
       </c>
       <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -669,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="AI1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AJ1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -2442,15 +2483,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E69D41-739E-0D49-A9A2-9BE7DC76A5D5}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="5"/>
+    <col min="11" max="11" width="10.83203125" style="5"/>
+    <col min="15" max="15" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2458,507 +2506,879 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="H1">
-        <v>2</v>
-      </c>
-      <c r="I1">
-        <v>2</v>
-      </c>
-      <c r="J1">
-        <v>2</v>
-      </c>
-      <c r="K1">
-        <v>2</v>
-      </c>
-      <c r="L1">
-        <v>3</v>
-      </c>
-      <c r="M1">
-        <v>3</v>
-      </c>
-      <c r="N1">
-        <v>3</v>
-      </c>
-      <c r="O1">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AE1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AF1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AG1" t="s">
         <v>34</v>
       </c>
-      <c r="T1">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="AH1">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>-0.21</v>
+      </c>
+      <c r="E2">
+        <v>-0.11</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>86</v>
+      </c>
+      <c r="D3">
+        <v>0.72</v>
+      </c>
+      <c r="E3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F3" s="5">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1.75</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>9</v>
+      </c>
+      <c r="P3">
+        <v>11</v>
+      </c>
+      <c r="Q3">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>9</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>7</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.222</v>
+      </c>
+      <c r="AD3">
+        <v>6</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>315</v>
+      </c>
+      <c r="D4">
+        <v>1.26</v>
+      </c>
+      <c r="E4">
+        <v>0.35</v>
+      </c>
+      <c r="F4" s="5">
+        <v>196</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>19</v>
+      </c>
+      <c r="I4">
+        <v>2.37</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
+        <v>160</v>
+      </c>
+      <c r="R4">
+        <v>70</v>
+      </c>
+      <c r="S4">
+        <v>90</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.438</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="V4">
+        <v>61</v>
+      </c>
+      <c r="W4">
+        <v>33</v>
+      </c>
+      <c r="X4">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Y4" s="2">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="Z4">
+        <v>99</v>
+      </c>
+      <c r="AA4">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="AB4">
+        <v>62</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.374</v>
+      </c>
+      <c r="AD4">
+        <v>20</v>
+      </c>
+      <c r="AE4">
+        <v>19</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AH4">
+        <v>2</v>
+      </c>
+      <c r="AI4">
+        <v>19</v>
+      </c>
+      <c r="AJ4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>156</v>
+      </c>
+      <c r="D5">
+        <v>0.98</v>
+      </c>
+      <c r="E5">
+        <v>0.24</v>
+      </c>
+      <c r="F5" s="5">
+        <v>78</v>
+      </c>
+      <c r="G5" s="5">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>17</v>
-      </c>
-      <c r="D4">
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>0.91</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5">
         <v>6</v>
       </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.38200000000000001</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>4</v>
-      </c>
-      <c r="V4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>121</v>
-      </c>
-      <c r="D5">
-        <v>54</v>
-      </c>
-      <c r="E5">
-        <v>67</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.56200000000000006</v>
-      </c>
-      <c r="H5">
-        <v>45</v>
-      </c>
-      <c r="I5">
-        <v>26</v>
-      </c>
-      <c r="J5">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.57799999999999996</v>
-      </c>
       <c r="L5">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N5">
-        <v>48</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.36799999999999999</v>
+        <v>5</v>
+      </c>
+      <c r="O5" s="5">
+        <v>18</v>
       </c>
       <c r="P5">
         <v>12</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="S5">
+        <v>31</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.621</v>
       </c>
       <c r="V5">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5">
+        <v>9</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="Z5">
+        <v>45</v>
+      </c>
+      <c r="AA5">
+        <v>18</v>
+      </c>
+      <c r="AB5">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AD5">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>6</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>2</v>
+      </c>
+      <c r="AI5">
+        <v>7</v>
+      </c>
+      <c r="AJ5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
       <c r="C6">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="D6">
+        <v>1.48</v>
+      </c>
+      <c r="E6">
+        <v>0.67</v>
+      </c>
+      <c r="F6" s="5">
+        <v>104</v>
+      </c>
+      <c r="G6" s="5">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>3.86</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>53</v>
+      </c>
+      <c r="N6">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>21</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
+      <c r="O6" s="5">
+        <v>39</v>
+      </c>
+      <c r="P6">
+        <v>12</v>
+      </c>
+      <c r="Q6">
+        <v>58</v>
+      </c>
+      <c r="R6">
+        <v>43</v>
+      </c>
+      <c r="S6">
+        <v>15</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="V6">
+        <v>45</v>
+      </c>
+      <c r="W6">
+        <v>38</v>
+      </c>
+      <c r="X6">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="Z6">
+        <v>13</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>18</v>
+      </c>
+      <c r="AE6">
+        <v>13</v>
+      </c>
+      <c r="AF6">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>15</v>
+      </c>
+      <c r="AJ6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="L6">
-        <v>25</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>18</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>4</v>
-      </c>
-      <c r="V6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>36</v>
-      </c>
       <c r="D7">
-        <v>28</v>
+        <v>0.76</v>
       </c>
       <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.79200000000000004</v>
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0.16700000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0</v>
       </c>
       <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>3</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>224</v>
+      </c>
+      <c r="D8">
+        <v>0.81</v>
+      </c>
+      <c r="E8">
+        <v>0.27</v>
+      </c>
+      <c r="F8" s="5">
+        <v>88</v>
+      </c>
+      <c r="G8" s="5">
+        <v>16</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1.6</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>26</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8" s="5">
+        <v>19</v>
+      </c>
+      <c r="P8">
+        <v>12</v>
+      </c>
+      <c r="Q8">
+        <v>73</v>
+      </c>
+      <c r="R8">
+        <v>34</v>
+      </c>
+      <c r="S8">
+        <v>39</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="V8">
+        <v>27</v>
+      </c>
+      <c r="W8">
+        <v>20</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>46</v>
+      </c>
+      <c r="AA8">
+        <v>14</v>
+      </c>
+      <c r="AB8">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AD8">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>52</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="H8">
+      <c r="AE8">
+        <v>6</v>
+      </c>
+      <c r="AF8">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>11</v>
+      </c>
+      <c r="AJ8">
         <v>18</v>
       </c>
-      <c r="I8">
-        <v>14</v>
-      </c>
-      <c r="J8">
-        <v>4</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="L8">
-        <v>34</v>
-      </c>
-      <c r="M8">
-        <v>10</v>
-      </c>
-      <c r="N8">
-        <v>24</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="P8">
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>6</v>
-      </c>
-      <c r="V8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2966,135 +3386,219 @@
         <v>5</v>
       </c>
       <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
         <v>0.83299999999999996</v>
       </c>
-      <c r="G9" s="2">
+      <c r="U9" s="2">
         <v>0.91700000000000004</v>
       </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
         <v>4</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1">
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
         <v>0.8</v>
       </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>3</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>2</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>102</v>
+        <v>311</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>1.59</v>
       </c>
       <c r="E10">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.71099999999999997</v>
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>215</v>
+      </c>
+      <c r="G10" s="5">
+        <v>21</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I10">
-        <v>29</v>
+        <v>1.17</v>
       </c>
       <c r="J10">
-        <v>14</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.67400000000000004</v>
+        <v>10</v>
+      </c>
+      <c r="K10" s="5">
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="N10">
+        <v>19</v>
+      </c>
+      <c r="O10" s="5">
+        <v>55</v>
+      </c>
+      <c r="P10">
+        <v>12</v>
+      </c>
+      <c r="Q10">
+        <v>135</v>
+      </c>
+      <c r="R10">
+        <v>74</v>
+      </c>
+      <c r="S10">
+        <v>61</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="V10">
+        <v>56</v>
+      </c>
+      <c r="W10">
+        <v>37</v>
+      </c>
+      <c r="X10">
+        <v>19</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="Z10">
+        <v>79</v>
+      </c>
+      <c r="AA10">
+        <v>37</v>
+      </c>
+      <c r="AB10">
+        <v>42</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="AD10">
+        <v>36</v>
+      </c>
+      <c r="AE10">
         <v>30</v>
       </c>
-      <c r="O10" s="2">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="P10">
-        <v>26</v>
-      </c>
-      <c r="Q10">
-        <v>21</v>
-      </c>
-      <c r="R10">
-        <v>5</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>26</v>
-      </c>
-      <c r="V10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AF10">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AH10">
+        <v>2</v>
+      </c>
+      <c r="AI10">
+        <v>39</v>
+      </c>
+      <c r="AJ10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3102,339 +3606,549 @@
         <v>3</v>
       </c>
       <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>0.52</v>
+      </c>
+      <c r="E11">
+        <v>0.62</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11" s="2">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G11" s="2">
+      <c r="U11" s="2">
         <v>0.16700000000000001</v>
       </c>
-      <c r="H11">
+      <c r="V11">
         <v>4</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1">
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="1">
         <v>0.25</v>
       </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="Z11">
+        <v>2</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="s">
         <v>16</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D12">
+        <v>0.76</v>
+      </c>
+      <c r="E12">
+        <v>0.39</v>
+      </c>
+      <c r="F12" s="5">
+        <v>17</v>
+      </c>
+      <c r="G12" s="5">
         <v>6</v>
-      </c>
-      <c r="E12">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.53800000000000003</v>
       </c>
       <c r="H12">
         <v>4</v>
       </c>
       <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" s="5">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>14</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>8</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
         <v>4</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
-      <c r="L12">
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Z12">
         <v>9</v>
       </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-      <c r="N12">
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
         <v>7</v>
       </c>
-      <c r="O12" s="2">
+      <c r="AC12" s="2">
         <v>0.222</v>
       </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12" s="1">
+      <c r="AD12">
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <v>3</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="1">
         <v>0.6</v>
       </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>3</v>
-      </c>
-      <c r="V12">
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>3</v>
+      </c>
+      <c r="AJ12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.83299999999999996</v>
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13" s="1">
         <v>0.5</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="U13" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="s">
         <v>16</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>2</v>
-      </c>
-      <c r="V13">
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>2</v>
+      </c>
+      <c r="AJ13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>1.65</v>
+      </c>
+      <c r="E14">
+        <v>0.21</v>
+      </c>
+      <c r="F14" s="5">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
         <v>11</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0.66700000000000004</v>
       </c>
       <c r="P14">
         <v>9</v>
       </c>
       <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>6</v>
+      </c>
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AD14">
+        <v>9</v>
+      </c>
+      <c r="AE14">
         <v>7</v>
       </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="2">
         <v>0.77800000000000002</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <v>4</v>
       </c>
-      <c r="V14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AJ14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>1.19</v>
       </c>
       <c r="E15">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.60699999999999998</v>
+        <v>0.74</v>
+      </c>
+      <c r="F15" s="5">
+        <v>84</v>
+      </c>
+      <c r="G15" s="5">
+        <v>92</v>
       </c>
       <c r="H15">
         <v>22</v>
       </c>
       <c r="I15">
+        <v>4.18</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15" s="5">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>45</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15" s="5">
+        <v>38</v>
+      </c>
+      <c r="P15">
         <v>12</v>
       </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-      <c r="M15">
-        <v>9</v>
-      </c>
-      <c r="N15">
-        <v>11</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="P15">
-        <v>15</v>
-      </c>
       <c r="Q15">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="R15">
-        <v>5</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.66700000000000004</v>
-      </c>
-      <c r="T15">
-        <v>3</v>
-      </c>
-      <c r="U15">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="S15">
+        <v>26</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.64600000000000002</v>
       </c>
       <c r="V15">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="W15">
+        <v>16</v>
+      </c>
+      <c r="X15">
+        <v>13</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="Z15">
+        <v>26</v>
+      </c>
+      <c r="AA15">
+        <v>13</v>
+      </c>
+      <c r="AB15">
+        <v>13</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD15">
+        <v>19</v>
+      </c>
+      <c r="AE15">
+        <v>13</v>
+      </c>
+      <c r="AF15">
+        <v>6</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="AH15">
+        <v>3</v>
+      </c>
+      <c r="AI15">
+        <v>32</v>
+      </c>
+      <c r="AJ15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3442,67 +4156,109 @@
         <v>5</v>
       </c>
       <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+      <c r="E16">
+        <v>0.42</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1.5</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
         <v>6</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
         <v>4</v>
       </c>
-      <c r="F16" s="2">
+      <c r="T16" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="G16" s="2">
+      <c r="U16" s="2">
         <v>0.33300000000000002</v>
       </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>3</v>
-      </c>
-      <c r="K16" s="1">
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="1">
         <v>0.4</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-      <c r="Q16">
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>5</v>
+      </c>
+      <c r="AE16">
         <v>4</v>
       </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="S16" s="1">
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="1">
         <v>0.8</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16">
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>3</v>
+      </c>
+      <c r="AJ16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -3510,135 +4266,273 @@
         <v>8</v>
       </c>
       <c r="C17">
+        <v>170</v>
+      </c>
+      <c r="D17">
+        <v>2.25</v>
+      </c>
+      <c r="E17">
+        <v>0.66</v>
+      </c>
+      <c r="F17" s="5">
+        <v>153</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>1.25</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17" s="5">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>62</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+      <c r="O17" s="5">
+        <v>42</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
         <v>97</v>
       </c>
-      <c r="D17">
+      <c r="R17">
         <v>56</v>
       </c>
-      <c r="E17">
+      <c r="S17">
         <v>41</v>
       </c>
-      <c r="F17" s="2">
+      <c r="T17" s="2">
         <v>0.57699999999999996</v>
       </c>
-      <c r="G17" s="2">
+      <c r="U17" s="2">
         <v>0.67500000000000004</v>
       </c>
-      <c r="H17">
+      <c r="V17">
         <v>54</v>
       </c>
-      <c r="I17">
+      <c r="W17">
         <v>37</v>
       </c>
-      <c r="J17">
+      <c r="X17">
         <v>17</v>
       </c>
-      <c r="K17" s="2">
+      <c r="Y17" s="2">
         <v>0.68500000000000005</v>
       </c>
-      <c r="L17">
+      <c r="Z17">
         <v>43</v>
       </c>
-      <c r="M17">
+      <c r="AA17">
         <v>19</v>
       </c>
-      <c r="N17">
+      <c r="AB17">
         <v>24</v>
       </c>
-      <c r="O17" s="2">
+      <c r="AC17" s="2">
         <v>0.442</v>
       </c>
-      <c r="P17">
+      <c r="AD17">
         <v>23</v>
       </c>
-      <c r="Q17">
+      <c r="AE17">
         <v>22</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17" s="2">
+      <c r="AF17">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="2">
         <v>0.95599999999999996</v>
       </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
+      <c r="AH17">
+        <v>2</v>
+      </c>
+      <c r="AI17">
         <v>18</v>
       </c>
-      <c r="V17">
+      <c r="AJ17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>548</v>
+        <v>360</v>
       </c>
       <c r="D18">
-        <v>285</v>
+        <v>1.28</v>
       </c>
       <c r="E18">
-        <v>263</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0.624</v>
+        <v>0.45</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1014</v>
+      </c>
+      <c r="G18" s="5">
+        <v>243</v>
       </c>
       <c r="H18">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="I18">
-        <v>171</v>
+        <v>2.11</v>
       </c>
       <c r="J18">
         <v>84</v>
       </c>
-      <c r="K18" s="2">
-        <v>0.67100000000000004</v>
+      <c r="K18" s="5">
+        <v>63</v>
       </c>
       <c r="L18">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>114</v>
+        <v>369</v>
       </c>
       <c r="N18">
-        <v>179</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0.38900000000000001</v>
+        <v>85</v>
+      </c>
+      <c r="O18" s="5">
+        <v>284</v>
       </c>
       <c r="P18">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="Q18">
-        <v>96</v>
+        <v>707</v>
       </c>
       <c r="R18">
-        <v>24</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="T18">
-        <v>13</v>
-      </c>
-      <c r="U18">
-        <v>118</v>
+        <v>364</v>
+      </c>
+      <c r="S18">
+        <v>343</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.624</v>
       </c>
       <c r="V18">
-        <v>157</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="W18">
+        <v>209</v>
+      </c>
+      <c r="X18">
+        <v>113</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="Z18">
+        <v>385</v>
+      </c>
+      <c r="AA18">
+        <v>155</v>
+      </c>
+      <c r="AB18">
+        <v>230</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="AD18">
+        <v>161</v>
+      </c>
+      <c r="AE18">
+        <v>131</v>
+      </c>
+      <c r="AF18">
+        <v>30</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AH18">
+        <v>16</v>
+      </c>
+      <c r="AI18">
+        <v>162</v>
+      </c>
+      <c r="AJ18">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="S26" s="2"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="S28" s="2"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="S30" s="2"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="S32" s="1"/>
+    </row>
+    <row r="34" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S34" s="2"/>
+    </row>
+    <row r="35" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="19:19" x14ac:dyDescent="0.2">
+      <c r="S38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA3EEF4-A4E5-4D41-A02F-FEF1730E7FFB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>